--- a/news_titles_urls/kejahatan/Kejahatan.xlsx
+++ b/news_titles_urls/kejahatan/Kejahatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Judul Berita Kejahatan</t>
+          <t>Judul Berita Kebakaran Halaman 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Link Berita</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Link Gambar</t>
         </is>
       </c>
     </row>
@@ -456,6 +461,11 @@
           <t>https://www.cnnindonesia.com/tv/20221208234440-404-884961/video-waspada-modus-baru-penipuan-online</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/12/08/prime-news-2_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>https://www.cnnindonesia.com/teknologi/20220711150840-199-820021/studi-buktikan-kepemilikan-anjing-bisa-turunkan-tingkat-kejahatan</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/01/18/anjing-bulldog-prancis-jadi-incaran-pencuri-di-as_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>https://www.cnnindonesia.com/tv/20220419172407-407-786770/video-pasutri-terlibat-kejahatan</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/04/19/suami-istri-terlibat-kejahatan_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +512,11 @@
           <t>https://www.cnnindonesia.com/gaya-hidup/20220401153903-288-779051/video-mengapa-ada-pemuka-agama-yang-melakukan-kejahatan-seksual</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/04/05/thumbnail-video-7_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +529,11 @@
           <t>https://www.cnnindonesia.com/tv/20220322160010-405-774743/video-karyawati-tewas-dibacok-pemotor</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/03/22/karyawati-tewas-dibacok-pemotor_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +546,11 @@
           <t>https://www.cnnindonesia.com/nasional/20220308141357-12-768274/marak-gangster-kapolda-metro-bakal-datangi-lokasi-rawan-kejahatan</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/11/30/pelatihan-patroli-perintis-presisi-polda-metro-jaya-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +563,11 @@
           <t>https://www.cnnindonesia.com/tv/20220228103837-400-764888/video-aksi-kejahatan-terekam-cctv</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/02/28/kejahatan-terekam-cctv_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +580,11 @@
           <t>https://www.cnnindonesia.com/gaya-hidup/20220105115347-277-742795/3-cara-terhindar-dari-kejahatan-modus-hipnotis</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2015/11/12/d72319b6-2a5b-4c66-b729-13ecae6e2cad_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +597,11 @@
           <t>https://www.cnnindonesia.com/tv/20211223144204-405-737835/video-langkah-antisipasi-kejahatan-di-transportasi-daring</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/12/23/langkah-antisipasi-kejahatan-di-transportasi-daring_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +614,11 @@
           <t>https://www.cnnindonesia.com/ekonomi/20210903155508-78-689422/satgas-investasi-tegaskan-pinjol-ilegal-adalah-kejahatan</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/31/1f850844-5964-4465-8b18-0900ec3b7748_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +631,11 @@
           <t>https://www.cnnindonesia.com/tv/20210414104022-405-629696/video-empat-kejahatan-yang-marak-selama-ramadan</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/04/14/after-10-pkg-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +648,11 @@
           <t>https://www.cnnindonesia.com/nasional/20201113200515-12-569633/kriminolog-tak-ada-korelasi-minuman-alkohol-dengan-kejahatan</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/02/06/f2696515-940d-45e7-945f-728e2b463135_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +665,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200805204430-12-532637/polisi-cengkareng-ringkus-geng-motor-maju-kena-mundur-kena</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2018/07/09/581badcd-a1c9-488b-a5b9-14a70f0eb064_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +682,11 @@
           <t>https://www.cnnindonesia.com/tv/20200624120541-407-516862/video-penemuan-kuburan-massal-di-libia</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/06/24/thumbnail-video_169.png?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +699,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200617074741-12-514117/polri-sebut-kriminalitas-naik-3845-persen-jelang-new-normal</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/21/7c0e582e-a703-43cb-a572-13055f046d5f_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +716,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200526081227-12-506870/135-napi-asimilasi-kambuh-dari-faktor-ekonomi-hingga-dendam</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2018/07/09/4747ac44-6fda-4cd5-928a-8388913591ea_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +733,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200519132948-12-504869/angka-kriminalitas-naik-jelang-lebaran-di-tengah-wabah-corona</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/21/7c0e582e-a703-43cb-a572-13055f046d5f_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +750,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200504204404-12-500001/masa-pandemi-polri-klaim-kriminal-april-turun-199-persen</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/19/3afbced9-453d-4426-9c88-4b3f1dae6ba6_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +767,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200501074531-12-499124/polri-maksimalkan-bhabinkantibmas-cegah-kejahatan-saat-corona</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/12/28/68cdf72c-2b33-4785-9a63-e0c2342c8749_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +784,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200424151758-12-496997/corona-kriminalitas-dan-ragam-imbas-sosial-masyarakat</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/03/12/f26ef263-77f3-442e-93b3-e1959e48ea63_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +801,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200421101528-12-495549/polisi-dalami-motif-pencurian-susu-di-minimarket-cibubur</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/08/04d97609-4529-418c-ab7b-8b820c38fa39_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +818,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200420185641-12-495403/polri-kejahatan-meningkat-selama-psbb-pencurian-mendominasi</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2015/09/03/069a9381-6be8-4016-84b7-7ff542bc9d8e_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +835,11 @@
           <t>https://www.cnnindonesia.com/nasional/20200420073604-12-495103/polisi-semarang-antisipasi-kejahatan-jalanan-selama-pandemi</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/20/e92d9e9f-4f63-4925-81c6-80628bc609bb_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +852,11 @@
           <t>https://www.cnnindonesia.com/gaya-hidup/20191031154733-284-444554/doa-mengusir-setan-dan-terhindar-dari-kejahatan</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/10/31/458878ee-dae9-4e09-bfea-ed9c6b9627ab_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +869,11 @@
           <t>https://www.cnnindonesia.com/tv/20190925094755-434-433731/video-pameran-barang-bukti-hasil-kejahatan</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/09/25/d0d152a5-12a1-432a-9c3c-351edd1b836f_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +886,11 @@
           <t>https://www.cnnindonesia.com/nasional/20190517062637-12-395609/angka-kriminalitas-naik-polri-fokus-empat-kasus-kejahatan</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/01/16/26a8f212-6406-49b2-8617-e6cc5c2ee236_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +903,11 @@
           <t>https://www.cnnindonesia.com/nasional/20190315170802-12-377656/empat-hari-ratusan-penjahat-jalanan-di-jakarta-diciduk</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/03/15/ef2ccc67-3a3c-4423-8a32-a94530ec205e_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -778,6 +918,11 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>https://www.cnnindonesia.com/tv/20190221095154-400-371313/jenazah-pelaku-pembakar-istri-anak-ditolak-warga</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/02/21/0058d467-e76a-4c78-9907-228f288caabe_169.jpeg?w=280&amp;q=90</t>
         </is>
       </c>
     </row>

--- a/news_titles_urls/kejahatan/Kejahatan.xlsx
+++ b/news_titles_urls/kejahatan/Kejahatan.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Judul Berita Kebakaran Halaman 1</t>
+          <t>Judul Berita</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/news_titles_urls/kejahatan/Kejahatan.xlsx
+++ b/news_titles_urls/kejahatan/Kejahatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,6 +926,346 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Wabup Rokan Ilir Tepergok Berduaan dengan PNS di Kamar Hotel</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230526152408-12-954413/wabup-rokan-ilir-tepergok-berduaan-dengan-pns-di-kamar-hotel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2016/04/19/e00522ed-a731-4554-a9fa-0b1e3292f39d_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Wanita di Medan Diamankan Polisi Usai Dituduh Menista Al-Qur'an</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230526141349-12-954377/wanita-di-medan-diamankan-polisi-usai-dituduh-menista-al-quran</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2016/03/11/f7cd9f2f-efb3-443d-8a1c-a7309cb6cc47_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Diduga KDRT, Bukhori Yusuf Berencana Laporkan Balik Mantan Istri</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230526135417-12-954362/diduga-kdrt-bukhori-yusuf-berencana-laporkan-balik-mantan-istri</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2018/08/31/665a5134-2b45-49eb-8f6d-6adeea0ab6ef_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pria Mengaku Polisi Masuk Rumah Rizal Ramli, Polres Jaksel Buka Suara</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230526070748-12-954190/pria-mengaku-polisi-masuk-rumah-rizal-ramli-polres-jaksel-buka-suara</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/08/12/rizal-ramli-15_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Polisi Minta Warga Waspada Akun Jastip Imbas Penipuan Tiket Coldplay</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230525114933-12-953836/polisi-minta-warga-waspada-akun-jastip-imbas-penipuan-tiket-coldplay</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/03/kombes-trunoyudo-wisnu-andiko-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Polda Metro Buka Kemungkinan Konfrontasi Suami-Istri Kasus KDRT Depok</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230525161713-12-954030/polda-metro-buka-kemungkinan-konfrontasi-suami-istri-kasus-kdrt-depok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/16/ilustrasi-kekerasan_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2 Tersangka Terorisme Ditangkap di Jatim, Terafiliasi JI dan JAD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230525120958-12-953846/2-tersangka-terorisme-ditangkap-di-jatim-terafiliasi-ji-dan-jad</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/12/22/jelang-natal-densus-tangkap-tiga-terduga-teroris-di-jateng-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Polisi Tangguhkan Penahanan Istri Tersangka Kasus KDRT di Depok</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230525111703-12-953800/polisi-tangguhkan-penahanan-istri-tersangka-kasus-kdrt-di-depok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2016/03/11/f7cd9f2f-efb3-443d-8a1c-a7309cb6cc47_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Anak Pejabat Kemenhub Tewas di Sekolah, Keluarga Nilai Ada Kejanggalan</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524184608-12-953607/anak-pejabat-kemenhub-tewas-di-sekolah-keluarga-nilai-ada-kejanggalan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2015/03/04/99d91ed2-72da-49c0-9d07-8e7725814c97_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Siswa Tewas Diduga Jatuh dari Tingkat Sekolah Anak Pejabat Kemenhub</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524181122-12-953593/siswa-tewas-diduga-jatuh-dari-tingkat-sekolah-anak-pejabat-kemenhub</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/04/21/7c0e582e-a703-43cb-a572-13055f046d5f_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kasus Dana Narkoba untuk Pemilu, Bareskrim Warning Reserse</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524174445-12-953590/kasus-dana-narkoba-untuk-pemilu-bareskrim-warning-reserse</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/12/13/barang-bukti-narkoba-hasil-operasi-nila-jaya-2022-polda-metro-jaya_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Penyiram Kotoran ke Rumah Tetangga di Sidoarjo Jadi Tersangka</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524150317-12-953506/penyiram-kotoran-ke-rumah-tetangga-di-sidoarjo-jadi-tersangka</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2016/03/11/f7cd9f2f-efb3-443d-8a1c-a7309cb6cc47_169.jpg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Polisi Ungkap Identitas Mayat Korban Mutilasi di Solo dan Sukoharjo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524153613-12-953519/polisi-ungkap-identitas-mayat-korban-mutilasi-di-solo-dan-sukoharjo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2021/09/08/kebakaran-lapas-tangerang-32_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Viral Istri Korban KDRT di Depok Jadi Tersangka Usai Polisikan Suami</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524143457-12-953484/viral-istri-korban-kdrt-di-depok-jadi-tersangka-usai-polisikan-suami</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2022/09/07/ilustrasi-pelaku-kejahatan_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Densus 88 Dikabarkan Geledah Rumah Warga di Surabaya</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524134840-12-953451/densus-88-dikabarkan-geledah-rumah-warga-di-surabaya</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2019/05/06/420d84f2-83ea-4ac7-81a8-eca5d9778746_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Polisi Tangguhkan Penahanan Sopir dan Kernet Bus Kecelakaan di Guci</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230524120507-12-953359/polisi-tangguhkan-penahanan-sopir-dan-kernet-bus-kecelakaan-di-guci</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/07/polisi-kesulitan-evakuasi-bus-masuk-jurang-di-tegal-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sejarah Tilang Manual dan Denda di Indonesia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/otomotif/20230524112752-579-953339/sejarah-tilang-manual-dan-denda-di-indonesia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/15/tilang-manual-kembali-diberlakukan-polda-metro-jaya-11_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Eks Ketua DPRD Gorontalo Diciduk Kasus Narkoba Jenis Sabu</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230523143841-12-952968/eks-ketua-dprd-gorontalo-diciduk-kasus-narkoba-jenis-sabu</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2020/11/23/ilustrasi-wanita-di-borgol-dan-penjara-2_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>VIDEO: 7 Jam Nyangkut, Truk Kontainer Di Matraman Berhasil Dievakuasi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/tv/20230523143226-407-952961/video-7-jam-nyangkut-truk-kontainer-di-matraman-berhasil-dievakuasi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2023/05/23/thumbnail-1_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bareskrim Dalami Kasus Dugaan KDRT Anggota DPR Fraksi PKS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.cnnindonesia.com/nasional/20230523135619-12-952932/bareskrim-dalami-kasus-dugaan-kdrt-anggota-dpr-fraksi-pks</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://akcdn.detik.net.id/visual/2018/12/18/ca15c37d-17d7-464b-99b3-b67a35606ee3_169.jpeg?w=280&amp;q=90</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
